--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28502"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clientes\RAPIDONET\PhotoRegister\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBC4BD6-E04A-4225-BF30-BD66629B08B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F71ECD3-1A0C-4858-9746-53049D9C043D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4DABC0CA-4FD2-47F4-8008-09F6FFC38E23}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -77,10 +77,43 @@
     <t>Patrícia Rodrigues</t>
   </si>
   <si>
-    <t>ESCRAVO</t>
-  </si>
-  <si>
     <t>Ana Barriga</t>
+  </si>
+  <si>
+    <t>Pedro Santos</t>
+  </si>
+  <si>
+    <t>Recursos Humanos</t>
+  </si>
+  <si>
+    <t>TI (Tecnologia da Informação)</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Vendas</t>
+  </si>
+  <si>
+    <t>Financeiro</t>
+  </si>
+  <si>
+    <t>Logística</t>
+  </si>
+  <si>
+    <t>Produção</t>
+  </si>
+  <si>
+    <t>Atendimento ao Cliente</t>
+  </si>
+  <si>
+    <t>Compras</t>
+  </si>
+  <si>
+    <t>Administrativo</t>
+  </si>
+  <si>
+    <t>Jurídico</t>
   </si>
 </sst>
 </file>
@@ -130,12 +163,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,17 +504,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEDFD84-C667-405B-B70C-F2F724581003}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -501,8 +535,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -512,8 +546,8 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -523,8 +557,8 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -534,8 +568,8 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -545,8 +579,8 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -556,8 +590,8 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -567,8 +601,8 @@
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -578,8 +612,8 @@
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -589,8 +623,8 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -601,8 +635,8 @@
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -610,14 +644,29 @@
         <v>93254567</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>34981276</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>